--- a/UTR.xlsx
+++ b/UTR.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nl.chuongthien@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -244,15 +250,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.69230769230769"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.06882591093117"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -337,6 +343,14 @@
       </c>
       <c r="D6" s="0" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -346,6 +360,7 @@
     <hyperlink ref="B4" r:id="rId3" display="c@gmcil.com"/>
     <hyperlink ref="B5" r:id="rId4" display="d@gmdil.com"/>
     <hyperlink ref="B6" r:id="rId5" display="e@gmeil.com"/>
+    <hyperlink ref="B7" r:id="rId6" display="nl.chuongthien@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
